--- a/NformTester/NformTester/Keywordscripts/600.30.30.70_CreationOfNewLogicalGroupToViewTree.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.70_CreationOfNewLogicalGroupToViewTree.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="868">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3813,18 +3813,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_Name$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for Vel"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"Liebert MPX/MPH"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert protocol"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3907,6 +3899,18 @@
   <si>
     <t>;Add one device and view.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SingleAuto_0_Name$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SingleAuto_0_Name$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4469,8 +4473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4488,10 +4492,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>819</v>
@@ -4532,10 +4536,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4556,10 +4560,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4590,10 +4594,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B5" s="19">
         <v>41754</v>
@@ -4627,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4643,10 +4647,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4668,16 +4672,16 @@
         <v>842</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>844</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>846</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="3"/>
@@ -4713,7 +4717,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="4">
@@ -4742,7 +4746,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="4">
@@ -4881,7 +4885,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5387,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5415,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="J33" s="4">
         <v>-40</v>
@@ -5475,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="J35" s="4">
         <v>-40</v>
@@ -5586,7 +5590,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -5791,7 +5795,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5804,7 +5808,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>687</v>
@@ -6210,7 +6214,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>620</v>
@@ -6220,7 +6224,7 @@
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -29250,39 +29254,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B5" s="19">
         <v>41754</v>
@@ -29290,10 +29294,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -29306,13 +29310,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B9" s="17"/>
     </row>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.70_CreationOfNewLogicalGroupToViewTree.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.70_CreationOfNewLogicalGroupToViewTree.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7818" uniqueCount="867">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3809,107 +3809,103 @@
     <t>SingleManual</t>
   </si>
   <si>
+    <t>"Description for Vel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert protocol"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical Groups</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Verify.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"AllDel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCP_snREM001-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Object</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add one device and view.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>$Velocity_device_1$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"Description for Vel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert protocol"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logical Groups</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Verify.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"AllDel"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCP_snREM001-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Data</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Object</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add one device and view.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Velocity_SingleAuto_0_Name$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Velocity_SingleAuto_0_Name$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <t>$NAME_Velocity_1$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4473,8 +4469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4486,16 +4482,17 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="34.125" customWidth="1"/>
     <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="10" max="10" width="26.5" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>851</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>852</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>819</v>
@@ -4536,10 +4533,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>853</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>854</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4560,10 +4557,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>855</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>856</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4594,10 +4591,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>857</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>858</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B5" s="19">
         <v>41754</v>
@@ -4631,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4647,10 +4644,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>860</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>861</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4668,20 +4665,20 @@
       <c r="H6" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>842</v>
+      <c r="I6" s="6" t="s">
+        <v>865</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>866</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>844</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="3"/>
@@ -4717,7 +4714,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="4">
@@ -4746,7 +4743,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="4">
@@ -4885,7 +4882,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5391,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -5419,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J33" s="4">
         <v>-40</v>
@@ -5479,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J35" s="4">
         <v>-40</v>
@@ -5590,7 +5587,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -5795,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5808,7 +5805,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>687</v>
@@ -6214,7 +6211,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>620</v>
@@ -6224,7 +6221,7 @@
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -29254,39 +29251,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>851</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>853</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>855</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>857</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B5" s="19">
         <v>41754</v>
@@ -29294,10 +29291,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>860</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -29310,13 +29307,13 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B9" s="17"/>
     </row>
